--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7984655459.257126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003034336870553769</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.09730473981755242</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.374840269760867</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.4121867003236487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.374840269760867</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6686113983.758641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004465314727000591</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.214905778124658</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9257978753424356</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.214905778124658</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5159056474.172639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003114307564134583</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.87830570481268</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9830928704077467</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.87830570481268</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4728279752.682413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003832741191898686</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.371062174480207</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7917231676054474</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.371062174480207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6180320644.849434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002738892058143577</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9443822304450358</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.137819619905194</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.126811356260442</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.137819619905194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5915854755.9893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001034259876882138</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.890120508767932</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9778975912973966</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.890120508767932</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6305889788.089073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002307942047459188</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.776813036365462</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9500618639932833</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.776813036365462</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4813807100.160665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004859858206275289</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8.165870342321895</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9529275549081264</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-8.165870342321895</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4127113611.90464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004019639200962356</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.211468654146343</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9539804759277259</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.211468654146343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3562615740.371192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001406326981383987</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.997350419463952</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.702633515268281</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.997350419463952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7210295507.212156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001941183264279829</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.332831416684003</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9782346626680316</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.332831416684003</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5186617043.667247</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004675792247494695</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3742299774274228</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.218660889966329</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.6996765878816374</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.218660889966329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6687741454.11002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002323851676264369</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.486911218915163</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8371783043872117</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.486911218915163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6240549963.855287</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004149798810977241</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.501166432874267</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9771926507546906</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.501166432874267</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6707578617.574451</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005588706994513787</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.309567884184124</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9057733115829336</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.309567884184124</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4674170707.783899</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003171800495037239</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.840366503830471</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9737214102813062</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.840366503830471</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6259580115.833416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009547899932623186</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.250009839317716</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9844786851887333</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.250009839317716</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3572748440.162568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001687952301622454</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.818337587608708</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8974815490548922</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.818337587608708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5674263371.93144</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001061510041534739</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6621755838347021</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.177754835897613</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8611267455778718</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.177754835897613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5104018080.471634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005445851340778137</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8919469336631726</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.218051471007738</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.030262932635531</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.218051471007738</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4646796508.4693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003973802945538075</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.401620477303249</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9024091706733076</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.401620477303249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8582677726.540091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001238247554777483</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9023744523270117</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.431346976834253</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.114312197321636</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.431346976834253</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5358450460.449414</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004108343745693114</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2006804894398345</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.028097475217292</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5444276716680966</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-6.028097475217292</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5235346707.864562</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003537967584603719</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.872567543461846</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8974815490548922</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.872567543461846</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5415283602.751441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00116786692986043</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.327685832037335</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7972860211595165</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.327685832037335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7923625187.727318</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002854673928065701</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.836281539342238</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9176870626235408</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.836281539342238</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8811636895.164465</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005132063692647327</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9764345452248614</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.277110028109229</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.14813213700432</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.277110028109229</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7501215671.217897</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001187591984812831</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.973451966573039</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9951047298317448</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.973451966573039</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8117666714.338938</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003871465897827984</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.366190601568822</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8504592156332312</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.366190601568822</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7434160576.541098</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002978231861032295</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1819434586113113</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.569338100020326</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.2880590306662377</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.569338100020326</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4564140915.88001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.00105536001974671</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.099315493604174</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.913235583341773</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.099315493604174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7619237778.351487</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003279267291410343</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.334647234609147</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8331238932403053</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.334647234609147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7320638659.610917</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00364636746051175</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>8.444923345659431</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8404466954147557</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-8.444923345659431</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5182757125.720201</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002286183702185753</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.862146740886093</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.266012518454263</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.862146740886093</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6172679384.891726</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002666793290354499</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.808835023683165</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9913336800938739</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.808835023683165</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4395725869.801743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005816167932355281</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.669394775693242</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9806516040560694</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.669394775693242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3642575526.833987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003759250750756259</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.158744751972398</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9124969935914669</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.158744751972398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4332912108.730765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002756789830474603</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.115633907189715</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.90428333902581</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.115633907189715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5187743760.513146</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004096811555901441</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2024253017724348</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.430875339274379</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.4627706171632904</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.430875339274379</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6174736239.14211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00104438988230556</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9330938340343705</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.833216649406966</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.165573961300437</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.833216649406966</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4725271917.18333</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005031835440672432</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.138349170813733</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9823916578790108</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.138349170813733</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6032456799.943677</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00392066826797238</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.360212390936362</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9224906342721277</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.360212390936362</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7510105890.507219</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002228149890476348</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.932385719435151</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9341912134303668</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.932385719435151</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5277148240.966692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001477047966986144</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.151036420142259</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9785868211014151</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.151036420142259</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8149383975.935162</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004823837105335444</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7704095639340773</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.275429474052714</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9046828393457552</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.275429474052714</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8355546924.477267</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002895149706544697</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.157722531355754</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9012629903368273</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-4.157722531355754</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7460814355.325595</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002987385825661258</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.345848524924937</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9937487049537542</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.345848524924937</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5175132096.266668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005173968132098057</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.382424607051877</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8195439599929289</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.382424607051877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6190653854.726038</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003311548824541089</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.941111822011862</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.004276670215851</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.941111822011862</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4900066756.177683</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003667890245055688</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.563815139953546</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9239512460384686</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.563815139953546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6987936340.429173</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001885307862890187</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.173193316923905</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8548519377649779</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.173193316923905</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7075692400.729839</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003083415568115405</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.255615835502153</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.923594363817824</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.255615835502153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6611894372.917395</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004125400416072201</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.17032665104617</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7904353202931564</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.17032665104617</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8699523459.136078</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003970326940987682</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.803316163172054</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8963456656545566</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.803316163172054</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5689096326.559312</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002472576432024564</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.956846013391508</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.95789858883722</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.956846013391508</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6088469588.427066</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003144530782276219</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.825716868762038</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8588211003215098</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.825716868762038</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5797417387.813356</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001903518323796509</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.102197379427404</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.769536703911391</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.102197379427404</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5612107517.701393</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003167972414589631</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.458371572542329</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8468578049393625</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.458371572542329</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4846349859.716296</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003215558476136172</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.690303909361875</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8178969174808312</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.690303909361875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5462620610.115712</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004952841194124126</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.1321092934613503</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.484091108018593</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.1719813448620819</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.484091108018593</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5758624794.3839</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003255027953651642</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.82184018699202</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8795231578429118</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.82184018699202</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6654469680.345268</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005554476530309051</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.202777206636645</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.93346920457098</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.202777206636645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4104927134.301217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003294262825828222</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.82768361380352</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9106397297444714</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.82768361380352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5542559442.226309</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004893659007914765</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.31881564492395</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.033277024070184</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.31881564492395</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6669504065.947147</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002677236222276472</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.848527114415336</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8849066429715197</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.848527114415336</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5672372901.701516</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00370675710562346</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.385902580857161</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9410938108309586</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.385902580857161</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8598407122.815063</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003012064411709199</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.678986024331868</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7268854429982796</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.678986024331868</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5815092903.294333</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001203523415147344</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.941099998099369</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9806667749780708</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.941099998099369</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7533157790.874875</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002625245425803328</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.684918303610432</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9016452123418698</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.684918303610432</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4545243875.897671</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003355383360059662</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8.250929021485934</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8690526642176459</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-8.250929021485934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5403575418.703636</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001678949801723936</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.918045164797678</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.093946053836184</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-5.918045164797678</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5580606399.909878</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001177657239436767</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.902516508923956</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9892911923109869</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.902516508923956</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4509938167.95532</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00468213792123495</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.85271809644202</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.74838325241526</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.061598635470231</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.74838325241526</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7805540936.8663</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003860415360584506</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.333415425101918</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8019514963969279</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.333415425101918</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7448651781.56522</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002841575733931257</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.339532629767449</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.869018425102421</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.339532629767449</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7325932874.465359</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00406266226432746</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.960747237158555</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.007657420553607</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.960747237158555</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7677689561.972003</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003442734953996723</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9602612309615878</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.27722724942822</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.219493121156151</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.27722724942822</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5621346305.302669</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002273762186972158</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.163720538067495</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9378246478459671</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.163720538067495</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5960345632.978538</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002222217058641804</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.547529457758575</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.91693583337677</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.547529457758575</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7332572924.551166</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003313276552771159</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.223998758991646</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.013040216953985</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.223998758991646</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5769137887.154217</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005034920366623218</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.00024668729437</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9568344307873118</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.00024668729437</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10210971503.54589</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002790385347934428</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.180421268972357</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7942925979988233</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.180421268972357</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4999798921.190463</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00414345754912724</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1175185414312006</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.78548385824786</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.04797097354765582</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.78548385824786</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5308160119.963992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003480761341784039</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.752829176203479</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9121193190177095</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.752829176203479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6674790566.558643</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002421781261690237</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.759672633018663</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9532578486826214</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.759672633018663</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4281956947.739541</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001419886803221599</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.23538744250198</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9421441658919819</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.23538744250198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8014674040.482608</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004961790871459894</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.173959308627711</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8500714800977054</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.173959308627711</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7398512215.135878</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004396983871715769</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.917755131420924</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9221170528363831</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.917755131420924</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5217124452.236705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002601114782124973</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.170011756856667</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9432406707138455</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.170011756856667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5145782733.021591</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003523489399144525</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.788411470992657</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8460788553242188</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.788411470992657</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3315403061.11935</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003460423813160012</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.885834404958173</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.015698946853185</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.885834404958173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7939537365.044111</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001821609424787816</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.513324276946964</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8868178012982747</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.513324276946964</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7326158590.341656</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001423476636445021</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.350573193364985</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.058290647579421</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.350573193364985</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6989190286.395446</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002253635432719999</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7933747676241917</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.746235511541693</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.054408424710862</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.746235511541693</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9605998505.666824</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002406770914074617</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.10306229158704</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.5897678246195885</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.10306229158704</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5074963330.310085</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004420480547227241</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.381691333205828</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8921739456523103</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.381691333205828</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6279113411.091145</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003736184068011743</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.628922113645101</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8375897710244452</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.628922113645101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2775949582.046679</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003662633982833409</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.289195937771213</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9202792039415405</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.289195937771213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4923093865.523883</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00259429810786924</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5983810488309736</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.427852514389912</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7686600492406801</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.427852514389912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5185030943.894593</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001721528820873534</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.974237936167339</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.780733500735936</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.162497600559429</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.780733500735936</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7984655459.257126</v>
+        <v>2510989394.601415</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003034336870553769</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.09127115248139397</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04003859931170799</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1255494761.384936</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6686113983.758641</v>
+        <v>2402542129.271913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004465314727000591</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1220512266169259</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03875727806424344</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>4</v>
+      <c r="J3" t="n">
+        <v>1201271166.810746</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5159056474.172639</v>
+        <v>4715829592.968415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003114307564134583</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1660505157697453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02354956542667239</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2357914861.138735</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4728279752.682413</v>
+        <v>3394948280.036599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003832741191898686</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1076718654355565</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03340736308752077</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1697474183.479415</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6180320644.849434</v>
+        <v>2389528334.89774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002738892058143577</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>0.1244422475027137</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04548609413637149</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1194764154.67155</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1916832435.830363</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09927856491296609</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03416111403945049</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5915854755.9893</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001034259876882138</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+      <c r="J7" t="n">
+        <v>958416286.8727852</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6305889788.089073</v>
+        <v>3917649346.240277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002307942047459188</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+        <v>0.1374958602399543</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0244405488855105</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1958824824.17091</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4813807100.160665</v>
+        <v>1615054976.92793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004859858206275289</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1543075622112116</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02754337394762099</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>807527568.2453343</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4127113611.90464</v>
+        <v>4974452330.635487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004019639200962356</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1959920337570858</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05467510878367412</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2487226262.417557</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3562615740.371192</v>
+        <v>2905811415.577261</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001406326981383987</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1160894048977741</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03044631863281819</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1452905643.836621</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7210295507.212156</v>
+        <v>2125479874.603052</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001941183264279829</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+        <v>0.1943556511797862</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05251287661290201</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1062739874.997857</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5186617043.667247</v>
+        <v>5178058940.575331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004675792247494695</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
+        <v>0.08009050237545277</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02884199634537682</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2589029465.093023</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6687741454.11002</v>
+        <v>3821351973.408667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002323851676264369</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+        <v>0.1677610916486997</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03619148618515892</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1910675961.370186</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6240549963.855287</v>
+        <v>1419948165.493821</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004149798810977241</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.08209963234209704</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03590465850564021</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>709974149.8658594</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6707578617.574451</v>
+        <v>2658401095.667492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005588706994513787</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
+        <v>0.08454338519814293</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04920809930892979</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1329200564.254073</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4674170707.783899</v>
+        <v>3665050162.558608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003171800495037239</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1727421487998828</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04487220673312548</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1832525132.147395</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6259580115.833416</v>
+        <v>3187120046.799891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009547899932623186</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.174208940162712</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02141639606384168</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>6</v>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1593560039.858306</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3572748440.162568</v>
+        <v>966760511.9996719</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001687952301622454</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1764429636086119</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02635860040328785</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>483380276.9116657</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5674263371.93144</v>
+        <v>1922935555.061563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001061510041534739</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1579108075084649</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02262282188827749</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>961467811.8535355</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2663560371.894475</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1001857219589275</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03185836397376791</v>
+      </c>
+      <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>440</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5104018080.471634</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.005445851340778137</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1331780158.265633</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4646796508.4693</v>
+        <v>2807385825.291654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003973802945538075</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1287259182265471</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05485740861111633</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1403692985.478728</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8582677726.540091</v>
+        <v>1178346135.716752</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001238247554777483</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1222025114660087</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03834072091606397</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>589173107.7468096</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5358450460.449414</v>
+        <v>2643492441.76517</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004108343745693114</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
+        <v>0.09979196624995547</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02579786729291225</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1321746279.88392</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5235346707.864562</v>
+        <v>1442104644.503418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003537967584603719</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.0996034466918317</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02440099393925146</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>721052284.0730207</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5415283602.751441</v>
+        <v>1057104434.679253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00116786692986043</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.104444584028416</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02962810388154141</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>528552203.141592</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7923625187.727318</v>
+        <v>3532084458.929502</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002854673928065701</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1163428715824672</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02123875433441244</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1766042262.629007</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8811636895.164465</v>
+        <v>2571311676.736328</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005132063692647327</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>0.1093631796375389</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03769098376034596</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1285655812.170291</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7501215671.217897</v>
+        <v>5441740659.029732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001187591984812831</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
+        <v>0.129697355612717</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03377266101702948</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2720870246.076972</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8117666714.338938</v>
+        <v>2255671141.14679</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003871465897827984</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
+        <v>0.09642913805860226</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03807570351770918</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1127835636.854078</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7434160576.541098</v>
+        <v>1358930647.168898</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002978231861032295</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+        <v>0.1074159158192505</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05225450327790256</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>679465237.3999646</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4564140915.88001</v>
+        <v>1830842769.406421</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00105536001974671</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09186645801062081</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02402308905829822</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>915421521.3752574</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7619237778.351487</v>
+        <v>2842418225.226992</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003279267291410343</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
+        <v>0.1382366539146656</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04866961325453726</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1421209121.43512</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7320638659.610917</v>
+        <v>1331372793.064673</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00364636746051175</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
+        <v>0.0791179944730326</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02205757521152212</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>665686379.8201703</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5182757125.720201</v>
+        <v>932851137.9248987</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002286183702185753</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
+        <v>0.09290068888260057</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04082588177654038</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>466425602.0481741</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2792118272.398841</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1554227399029152</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02227011601452732</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6172679384.891726</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.002666793290354499</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1396059134.532177</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4395725869.801743</v>
+        <v>2492775253.363588</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005816167932355281</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.07607761325584116</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02726345203484901</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1246387721.512425</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3642575526.833987</v>
+        <v>1961739268.335019</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003759250750756259</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1067194546659483</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03180189189028139</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>980869617.9838445</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4332912108.730765</v>
+        <v>1823722335.05182</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002756789830474603</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1604069470309676</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02258084301597697</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>911861188.5858266</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5187743760.513146</v>
+        <v>1379513832.497947</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004096811555901441</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
+        <v>0.1473102682150201</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04816444850508419</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>689756912.3836941</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6174736239.14211</v>
+        <v>2402669174.205246</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00104438988230556</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
+        <v>0.1314504015217645</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04283221888067629</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1201334621.645533</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>501</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3424813546.58148</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1202956317287672</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0431227552663466</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>514</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4725271917.18333</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.005031835440672432</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1712406762.694151</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6032456799.943677</v>
+        <v>2273916037.730329</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00392066826797238</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
+        <v>0.1747846814079632</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02457186494307679</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1136958089.970477</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7510105890.507219</v>
+        <v>1447980528.790565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002228149890476348</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
+        <v>0.06979594530671987</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02254796156380261</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>723990260.397646</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5277148240.966692</v>
+        <v>1671889454.688917</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001477047966986144</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1570726254022608</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04334998127837251</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>835944684.904762</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8149383975.935162</v>
+        <v>5578594943.842254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004823837105335444</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1712860936197237</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0603597851758889</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2789297531.608457</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8355546924.477267</v>
+        <v>4542118484.951156</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002895149706544697</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1499938075989598</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05666100117447414</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2271059272.114976</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7460814355.325595</v>
+        <v>4135927529.941355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002987385825661258</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.09935460461767462</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02826864829302973</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2067963791.213391</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5175132096.266668</v>
+        <v>1384235622.934391</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005173968132098057</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1678043293536949</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03864304819357249</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>692117861.219527</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6190653854.726038</v>
+        <v>4076894063.638404</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003311548824541089</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
+        <v>0.1562783504140031</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05012231328821967</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2038447014.75478</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4900066756.177683</v>
+        <v>1073182538.940608</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003667890245055688</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1700846004460034</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0539242903806576</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>536591341.2729208</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6987936340.429173</v>
+        <v>4311956717.558465</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001885307862890187</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
+        <v>0.1313584028097873</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0518909256152952</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2155978396.669806</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7075692400.729839</v>
+        <v>3247208131.966239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003083415568115405</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1318560761419721</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03191805421125885</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>4</v>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1623604081.079941</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6611894372.917395</v>
+        <v>4410415867.495255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004125400416072201</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1470588516076248</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04248384027182076</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>4</v>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2205208029.782211</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8699523459.136078</v>
+        <v>3005026367.253311</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003970326940987682</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
+        <v>0.1594452212478448</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02841276750910649</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1502513114.385228</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5689096326.559312</v>
+        <v>1425273239.649037</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002472576432024564</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.1352643507960707</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05172295079029098</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>712636672.8465446</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6088469588.427066</v>
+        <v>3784729518.09509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003144530782276219</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+        <v>0.1167633700637338</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02484828391280302</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1892364829.091782</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5797417387.813356</v>
+        <v>1750059904.708837</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001903518323796509</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1258634976488878</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03014650198934041</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>875029960.454638</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5612107517.701393</v>
+        <v>4095084060.946071</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003167972414589631</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.09014766430502728</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04489833863144379</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2047542001.582646</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4846349859.716296</v>
+        <v>2553298536.998264</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003215558476136172</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1746653253408341</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0308329668159173</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1276649291.784821</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5462620610.115712</v>
+        <v>2406482118.956992</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004952841194124126</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
+        <v>0.1802621837948563</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02462908515122533</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1203241095.676223</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5758624794.3839</v>
+        <v>1539587295.549168</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003255027953651642</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1387277449011176</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0461722675031132</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>769793636.5504104</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6654469680.345268</v>
+        <v>5194409937.146073</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005554476530309051</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.0727210573723569</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02883213499301848</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2597204977.44639</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4104927134.301217</v>
+        <v>4560266632.052015</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003294262825828222</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1854811956636211</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02900628900541858</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2280133391.054516</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5542559442.226309</v>
+        <v>5791212011.940612</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004893659007914765</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
+        <v>0.1451718441925157</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02010575299006613</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2895605917.373886</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6669504065.947147</v>
+        <v>4438784128.556152</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002677236222276472</v>
-      </c>
-      <c r="G66" t="b">
+        <v>0.1211096608611528</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04214356829985511</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>4</v>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2219392061.133524</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5672372901.701516</v>
+        <v>3386719989.014355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00370675710562346</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.08037969836258863</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04267463987902599</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1693359979.812224</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8598407122.815063</v>
+        <v>4403746087.705994</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003012064411709199</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
+        <v>0.142548706899927</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03855788879171953</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2201873063.898182</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5815092903.294333</v>
+        <v>2025307295.393343</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001203523415147344</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1785310406417153</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05005941075055661</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1012653655.675199</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7533157790.874875</v>
+        <v>2833079252.360307</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002625245425803328</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
+        <v>0.1019330866116862</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03950471950499624</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1416539592.059913</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4545243875.897671</v>
+        <v>4527675659.588154</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003355383360059662</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1556814805750006</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02380162571563243</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2263837899.990828</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5403575418.703636</v>
+        <v>1613661209.088556</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001678949801723936</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.1030364787123116</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05238890464696934</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>806830612.9822534</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5580606399.909878</v>
+        <v>2689546602.40133</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001177657239436767</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.07951804440531272</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04837569989336404</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1344773325.336806</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4509938167.95532</v>
+        <v>2558498399.300426</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00468213792123495</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1660734712520534</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03454444777027683</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1279249302.927657</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7805540936.8663</v>
+        <v>1679298891.584254</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003860415360584506</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
+        <v>0.1550521790729887</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03579941878184791</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>839649439.8793241</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7448651781.56522</v>
+        <v>4381538586.225433</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002841575733931257</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.07678917054623791</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02524982522959244</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2190769293.570055</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7325932874.465359</v>
+        <v>1590287145.442564</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00406266226432746</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>8</v>
+        <v>0.1801434661030912</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02706639102598737</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>795143573.5079206</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7677689561.972003</v>
+        <v>3029120455.699726</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003442734953996723</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
+        <v>0.1326070134573921</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03630687927873123</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1514560262.863005</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5621346305.302669</v>
+        <v>1274690069.316286</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002273762186972158</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
+        <v>0.1475126300597764</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03667388132866187</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>637345029.2744445</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5960345632.978538</v>
+        <v>5326852706.218552</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002222217058641804</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.09848509233682647</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03866105145966685</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2663426418.278416</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7332572924.551166</v>
+        <v>4679319337.053232</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003313276552771159</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>4</v>
+        <v>0.09472060725476122</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03273876140812991</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2339659656.747626</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5769137887.154217</v>
+        <v>3575270426.836732</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005034920366623218</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4</v>
+        <v>0.1689111271104331</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01897205367935479</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1787635276.714054</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10210971503.54589</v>
+        <v>2197219218.224042</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002790385347934428</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7</v>
+        <v>0.1489054067393293</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04034136626367717</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1098609618.788884</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4999798921.190463</v>
+        <v>1746832534.571609</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00414345754912724</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>6</v>
+        <v>0.09292789547537367</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04153968341570088</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>873416309.122122</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5308160119.963992</v>
+        <v>2257984679.275691</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003480761341784039</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1763351467769758</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04945192602548414</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1128992317.658431</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6674790566.558643</v>
+        <v>2382035549.741157</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002421781261690237</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.124103966178951</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02276646754821147</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1191017855.379043</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4281956947.739541</v>
+        <v>1064686535.212097</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001419886803221599</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.152074672562409</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04102412365648425</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>532343288.2614557</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8014674040.482608</v>
+        <v>2450596330.67922</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004961790871459894</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5</v>
+        <v>0.1559700649539551</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03110421004790691</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1225298141.218539</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7398512215.135878</v>
+        <v>2488862290.923551</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004396983871715769</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>5</v>
+        <v>0.12816124004996</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03659723312070508</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1244431220.828243</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5217124452.236705</v>
+        <v>1632197561.79587</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002601114782124973</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.09435629040726615</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03423610214034244</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>816098783.5762244</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5145782733.021591</v>
+        <v>1449098828.349332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003523489399144525</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>7</v>
+        <v>0.1776647884689448</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0449184331761285</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>724549459.6569201</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2840155457.918532</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.09759993904651931</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03769863985538835</v>
+      </c>
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3315403061.11935</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003460423813160012</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1420077738.367426</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7939537365.044111</v>
+        <v>3078473828.688277</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001821609424787816</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>8</v>
+        <v>0.1234156513427286</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05468987471866822</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1539236974.324365</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7326158590.341656</v>
+        <v>2439317678.918661</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001423476636445021</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>8</v>
+        <v>0.1079325600710601</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03677830806679484</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1219658894.796342</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2493722398.153945</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1385379359598185</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04821587114656266</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>5</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6989190286.395446</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002253635432719999</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
+      <c r="J95" t="n">
+        <v>1246861235.39035</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9605998505.666824</v>
+        <v>1494268207.510582</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002406770914074617</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>6</v>
+        <v>0.1339597485807056</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03375619198636053</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>747134144.3727517</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5074963330.310085</v>
+        <v>4206423624.338153</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004420480547227241</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6</v>
+        <v>0.1461048220111018</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0217814105170781</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2103211884.912999</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3715873788.748762</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1283969600510511</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02980467559908903</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>6</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6279113411.091145</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.003736184068011743</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>9</v>
+      <c r="J98" t="n">
+        <v>1857936927.398752</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2775949582.046679</v>
+        <v>3024781236.874469</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003662633982833409</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1221244534068122</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02445060376321642</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1512390605.962193</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4923093865.523883</v>
+        <v>4357138189.050614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00259429810786924</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.164806431518369</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02140952277027448</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2178569193.446721</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3047982343.800911</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1641202285797848</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05567256664632678</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5185030943.894593</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001721528820873534</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>8</v>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1523991267.043061</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2510989394.601415</v>
+        <v>1560494801.026866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09127115248139397</v>
+        <v>0.1113303835535247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04003859931170799</v>
+        <v>0.03966474914533438</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1255494761.384936</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2402542129.271913</v>
+        <v>2638984178.427137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1220512266169259</v>
+        <v>0.1348061928394898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03875727806424344</v>
+        <v>0.03061493132983359</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1201271166.810746</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4715829592.968415</v>
+        <v>3405528279.956341</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1660505157697453</v>
+        <v>0.1398930472858499</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02354956542667239</v>
+        <v>0.03219014102914598</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2357914861.138735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3394948280.036599</v>
+        <v>2886106387.617402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076718654355565</v>
+        <v>0.08495075526983517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03340736308752077</v>
+        <v>0.04614052635108367</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1697474183.479415</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2389528334.89774</v>
+        <v>2110736024.220041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1244422475027137</v>
+        <v>0.1341907993003241</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04548609413637149</v>
+        <v>0.03856297091349065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1194764154.67155</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1916832435.830363</v>
+        <v>2164605657.040684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09927856491296609</v>
+        <v>0.08418498493755966</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03416111403945049</v>
+        <v>0.04880636635691796</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>958416286.8727852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3917649346.240277</v>
+        <v>3742658022.510758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1374958602399543</v>
+        <v>0.1558594849554656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0244405488855105</v>
+        <v>0.03212524014168172</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1958824824.17091</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1615054976.92793</v>
+        <v>1412283877.220288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543075622112116</v>
+        <v>0.1578231798551091</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02754337394762099</v>
+        <v>0.03136848080651757</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>807527568.2453343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4974452330.635487</v>
+        <v>3976266643.151164</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959920337570858</v>
+        <v>0.1791452519260456</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05467510878367412</v>
+        <v>0.03421227584183266</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2487226262.417557</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2905811415.577261</v>
+        <v>2911310210.409693</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1160894048977741</v>
+        <v>0.1724676198468609</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03044631863281819</v>
+        <v>0.04552544761824934</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1452905643.836621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2125479874.603052</v>
+        <v>2334030310.688428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1943556511797862</v>
+        <v>0.1995070275222623</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05251287661290201</v>
+        <v>0.05158817300975733</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1062739874.997857</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5178058940.575331</v>
+        <v>5283736907.350932</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08009050237545277</v>
+        <v>0.09216771860200548</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02884199634537682</v>
+        <v>0.02090419898637063</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2589029465.093023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3821351973.408667</v>
+        <v>3226870908.367029</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677610916486997</v>
+        <v>0.115848263224532</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03619148618515892</v>
+        <v>0.03347779158380776</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1910675961.370186</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1419948165.493821</v>
+        <v>1210024830.377555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08209963234209704</v>
+        <v>0.06903116807449709</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03590465850564021</v>
+        <v>0.04194499958007151</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>709974149.8658594</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2658401095.667492</v>
+        <v>2462378649.080193</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08454338519814293</v>
+        <v>0.07993245104087723</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04920809930892979</v>
+        <v>0.04706131472385395</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1329200564.254073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3665050162.558608</v>
+        <v>4790824761.710546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1727421487998828</v>
+        <v>0.1510907957012238</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04487220673312548</v>
+        <v>0.03566851254326762</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1832525132.147395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3187120046.799891</v>
+        <v>2921352595.270303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.174208940162712</v>
+        <v>0.1427490205403156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02141639606384168</v>
+        <v>0.02149731510661476</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1593560039.858306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>966760511.9996719</v>
+        <v>909326229.7856246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1764429636086119</v>
+        <v>0.189041273240104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02635860040328785</v>
+        <v>0.02525645767788841</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>483380276.9116657</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1922935555.061563</v>
+        <v>2463284167.210316</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579108075084649</v>
+        <v>0.1578913084205796</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02262282188827749</v>
+        <v>0.02420281101207371</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>961467811.8535355</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2663560371.894475</v>
+        <v>1947994169.456681</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1001857219589275</v>
+        <v>0.07174058038189279</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03185836397376791</v>
+        <v>0.03704560473499891</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1331780158.265633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2807385825.291654</v>
+        <v>4016957936.337372</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1287259182265471</v>
+        <v>0.09703997691996723</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05485740861111633</v>
+        <v>0.0517205746000361</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1403692985.478728</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1178346135.716752</v>
+        <v>1523068704.392279</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1222025114660087</v>
+        <v>0.1697876659696244</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03834072091606397</v>
+        <v>0.04755135783075368</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>589173107.7468096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2643492441.76517</v>
+        <v>2566360786.22252</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09979196624995547</v>
+        <v>0.09457885310531015</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02579786729291225</v>
+        <v>0.03333509764041828</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1321746279.88392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1442104644.503418</v>
+        <v>1183196996.14091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0996034466918317</v>
+        <v>0.08899972213633622</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02440099393925146</v>
+        <v>0.02001316606193555</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>721052284.0730207</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1057104434.679253</v>
+        <v>1394449921.390053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.104444584028416</v>
+        <v>0.1087421328749436</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02962810388154141</v>
+        <v>0.02503336890836344</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>528552203.141592</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3532084458.929502</v>
+        <v>4531481835.112704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1163428715824672</v>
+        <v>0.1388567026717477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02123875433441244</v>
+        <v>0.01884226598128986</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1766042262.629007</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2571311676.736328</v>
+        <v>3901094604.248838</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1093631796375389</v>
+        <v>0.1304227789165157</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03769098376034596</v>
+        <v>0.04444392697227055</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1285655812.170291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5441740659.029732</v>
+        <v>4763464713.990469</v>
       </c>
       <c r="F29" t="n">
-        <v>0.129697355612717</v>
+        <v>0.1121454354220275</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03377266101702948</v>
+        <v>0.03276672609630173</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2720870246.076972</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2255671141.14679</v>
+        <v>2061299969.565139</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09642913805860226</v>
+        <v>0.08778136022788947</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03807570351770918</v>
+        <v>0.0402546735634274</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1127835636.854078</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1358930647.168898</v>
+        <v>1406738889.014199</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1074159158192505</v>
+        <v>0.1071351777375355</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05225450327790256</v>
+        <v>0.04874671602711537</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>679465237.3999646</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1830842769.406421</v>
+        <v>1377289504.365136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09186645801062081</v>
+        <v>0.09749436892919597</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02402308905829822</v>
+        <v>0.02612811445515474</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>915421521.3752574</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2842418225.226992</v>
+        <v>2351903016.777468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1382366539146656</v>
+        <v>0.1949117119159814</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04866961325453726</v>
+        <v>0.05455826934512965</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1421209121.43512</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1331372793.064673</v>
+        <v>1217650573.199291</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0791179944730326</v>
+        <v>0.1076749615699954</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02205757521152212</v>
+        <v>0.01902981064844724</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>665686379.8201703</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>932851137.9248987</v>
+        <v>1046812578.726714</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09290068888260057</v>
+        <v>0.1073650926136446</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04082588177654038</v>
+        <v>0.04371207756634835</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>466425602.0481741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2792118272.398841</v>
+        <v>2441409694.527723</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1554227399029152</v>
+        <v>0.1366048475298173</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02227011601452732</v>
+        <v>0.02827625818466866</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1396059134.532177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2492775253.363588</v>
+        <v>2637176623.956662</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07607761325584116</v>
+        <v>0.1083815862403651</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02726345203484901</v>
+        <v>0.02908498428750188</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1246387721.512425</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1961739268.335019</v>
+        <v>1399449939.978392</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1067194546659483</v>
+        <v>0.09992446480946075</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03180189189028139</v>
+        <v>0.03218102700230961</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>980869617.9838445</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1823722335.05182</v>
+        <v>1881319955.443328</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1604069470309676</v>
+        <v>0.1195598773511838</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02258084301597697</v>
+        <v>0.03264168425647342</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>911861188.5858266</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1379513832.497947</v>
+        <v>1679043695.381561</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1473102682150201</v>
+        <v>0.1166136287740378</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04816444850508419</v>
+        <v>0.04313003502142874</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>689756912.3836941</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2402669174.205246</v>
+        <v>1977710984.622824</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1314504015217645</v>
+        <v>0.1631700211695228</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04283221888067629</v>
+        <v>0.03072152868001296</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1201334621.645533</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3424813546.58148</v>
+        <v>3860007194.545021</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1202956317287672</v>
+        <v>0.1151171877103183</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0431227552663466</v>
+        <v>0.0417528447894602</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1712406762.694151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2273916037.730329</v>
+        <v>2280758353.133222</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1747846814079632</v>
+        <v>0.1338746087830664</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02457186494307679</v>
+        <v>0.02463652732605363</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1136958089.970477</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1447980528.790565</v>
+        <v>2158670293.824779</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06979594530671987</v>
+        <v>0.08157361569173265</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02254796156380261</v>
+        <v>0.02913785433647554</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>723990260.397646</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1671889454.688917</v>
+        <v>1629951399.184043</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1570726254022608</v>
+        <v>0.1557583668078233</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04334998127837251</v>
+        <v>0.04764508320669492</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>835944684.904762</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5578594943.842254</v>
+        <v>5276509449.905648</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1712860936197237</v>
+        <v>0.1751633652214536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0603597851758889</v>
+        <v>0.04213272149569169</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2789297531.608457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4542118484.951156</v>
+        <v>4387251206.748133</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1499938075989598</v>
+        <v>0.1827030619163361</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05666100117447414</v>
+        <v>0.05934991877340467</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2271059272.114976</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4135927529.941355</v>
+        <v>3122336362.282783</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09935460461767462</v>
+        <v>0.08692120595883783</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02826864829302973</v>
+        <v>0.03795412293174195</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2067963791.213391</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1384235622.934391</v>
+        <v>1687270625.502293</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1678043293536949</v>
+        <v>0.1660388766466305</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03864304819357249</v>
+        <v>0.0363492614498868</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>692117861.219527</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4076894063.638404</v>
+        <v>3411316799.505167</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1562783504140031</v>
+        <v>0.1232675717930231</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05012231328821967</v>
+        <v>0.04154387460839837</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2038447014.75478</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073182538.940608</v>
+        <v>1174822274.369138</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1700846004460034</v>
+        <v>0.1730293322651889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0539242903806576</v>
+        <v>0.04107090593964619</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>536591341.2729208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4311956717.558465</v>
+        <v>5245091879.6473</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1313584028097873</v>
+        <v>0.101768808236159</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0518909256152952</v>
+        <v>0.04069413397087997</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2155978396.669806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3247208131.966239</v>
+        <v>3105236304.064598</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1318560761419721</v>
+        <v>0.1881034558676733</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03191805421125885</v>
+        <v>0.03539184231600443</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1623604081.079941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4410415867.495255</v>
+        <v>4641927346.525582</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1470588516076248</v>
+        <v>0.1181699035415075</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04248384027182076</v>
+        <v>0.0408972349987625</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2205208029.782211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3005026367.253311</v>
+        <v>3467574187.6229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1594452212478448</v>
+        <v>0.1565410178368185</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02841276750910649</v>
+        <v>0.02016284433499231</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1502513114.385228</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1425273239.649037</v>
+        <v>1332857887.250107</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352643507960707</v>
+        <v>0.1410641127750521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05172295079029098</v>
+        <v>0.04000921668815675</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>712636672.8465446</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3784729518.09509</v>
+        <v>3811192494.725923</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1167633700637338</v>
+        <v>0.1818588406081593</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02484828391280302</v>
+        <v>0.02080249179753643</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1892364829.091782</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1750059904.708837</v>
+        <v>1682587649.82458</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1258634976488878</v>
+        <v>0.1913790832236539</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03014650198934041</v>
+        <v>0.02450798209312575</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>875029960.454638</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4095084060.946071</v>
+        <v>3619229799.336926</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09014766430502728</v>
+        <v>0.1184184098227956</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04489833863144379</v>
+        <v>0.04767252239692242</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2047542001.582646</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2553298536.998264</v>
+        <v>3426310671.963859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1746653253408341</v>
+        <v>0.1874662022596499</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0308329668159173</v>
+        <v>0.03022850444562895</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1276649291.784821</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2406482118.956992</v>
+        <v>2257355387.947771</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1802621837948563</v>
+        <v>0.1684803366010473</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02462908515122533</v>
+        <v>0.02164901373774171</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1203241095.676223</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1539587295.549168</v>
+        <v>1279662304.060395</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1387277449011176</v>
+        <v>0.1821632125110174</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0461722675031132</v>
+        <v>0.03347857420829348</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>769793636.5504104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5194409937.146073</v>
+        <v>5270228193.194241</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0727210573723569</v>
+        <v>0.07555764963898226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02883213499301848</v>
+        <v>0.0361305490746957</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2597204977.44639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4560266632.052015</v>
+        <v>4289045699.219835</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1854811956636211</v>
+        <v>0.1914391739358161</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02900628900541858</v>
+        <v>0.03463936138504729</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2280133391.054516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5791212011.940612</v>
+        <v>3737002622.563524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1451718441925157</v>
+        <v>0.1690930350081928</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02010575299006613</v>
+        <v>0.02145496145534112</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2895605917.373886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4438784128.556152</v>
+        <v>4896724438.349128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1211096608611528</v>
+        <v>0.1269626275151553</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04214356829985511</v>
+        <v>0.04266425070947146</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2219392061.133524</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3386719989.014355</v>
+        <v>2185856920.476651</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08037969836258863</v>
+        <v>0.08797996738691606</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04267463987902599</v>
+        <v>0.03510664627633887</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1693359979.812224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4403746087.705994</v>
+        <v>3951358626.065228</v>
       </c>
       <c r="F68" t="n">
-        <v>0.142548706899927</v>
+        <v>0.1150998285934693</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03855788879171953</v>
+        <v>0.04136594103833648</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2201873063.898182</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2025307295.393343</v>
+        <v>2448175395.488008</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1785310406417153</v>
+        <v>0.1395619071195486</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05005941075055661</v>
+        <v>0.05820449078368552</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1012653655.675199</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2833079252.360307</v>
+        <v>3397327536.519664</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019330866116862</v>
+        <v>0.08501918028906155</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03950471950499624</v>
+        <v>0.04069579679806856</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1416539592.059913</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4527675659.588154</v>
+        <v>5363984077.23468</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1556814805750006</v>
+        <v>0.1290841912900358</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02380162571563243</v>
+        <v>0.0316564228619845</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2263837899.990828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1613661209.088556</v>
+        <v>2083641913.971228</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1030364787123116</v>
+        <v>0.09259567515427111</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05238890464696934</v>
+        <v>0.04142537619271793</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>806830612.9822534</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2689546602.40133</v>
+        <v>2906804282.246513</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07951804440531272</v>
+        <v>0.06798219616341515</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04837569989336404</v>
+        <v>0.03570988827080854</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1344773325.336806</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2558498399.300426</v>
+        <v>2497161047.334911</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1660734712520534</v>
+        <v>0.1206825812562001</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03454444777027683</v>
+        <v>0.03121847172978821</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1279249302.927657</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1679298891.584254</v>
+        <v>1789006522.615604</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1550521790729887</v>
+        <v>0.1031160099931652</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03579941878184791</v>
+        <v>0.03200962793457205</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>839649439.8793241</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4381538586.225433</v>
+        <v>3976804214.800403</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07678917054623791</v>
+        <v>0.103391415229403</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02524982522959244</v>
+        <v>0.03266495070126512</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2190769293.570055</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1590287145.442564</v>
+        <v>1866247809.592564</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1801434661030912</v>
+        <v>0.143806829929128</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02706639102598737</v>
+        <v>0.02020349087909652</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>795143573.5079206</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3029120455.699726</v>
+        <v>3218789620.814301</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1326070134573921</v>
+        <v>0.1088839571523981</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03630687927873123</v>
+        <v>0.03466916189831134</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1514560262.863005</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1274690069.316286</v>
+        <v>1497049248.069923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1475126300597764</v>
+        <v>0.1140159017304537</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03667388132866187</v>
+        <v>0.0327009796001578</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>637345029.2744445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5326852706.218552</v>
+        <v>4753232505.367623</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09848509233682647</v>
+        <v>0.07077038022076032</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03866105145966685</v>
+        <v>0.02908821883884535</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2663426418.278416</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4679319337.053232</v>
+        <v>3483252849.097526</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09472060725476122</v>
+        <v>0.0886562037159785</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03273876140812991</v>
+        <v>0.02736974818757501</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2339659656.747626</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3575270426.836732</v>
+        <v>5362803370.831847</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1689111271104331</v>
+        <v>0.1518117980830608</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01897205367935479</v>
+        <v>0.01839133790010637</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1787635276.714054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2197219218.224042</v>
+        <v>1838755992.466485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1489054067393293</v>
+        <v>0.1356349610607943</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04034136626367717</v>
+        <v>0.02953994111622021</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1098609618.788884</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1746832534.571609</v>
+        <v>2402546137.640348</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09292789547537367</v>
+        <v>0.07674450928557383</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04153968341570088</v>
+        <v>0.03422880749159744</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>873416309.122122</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2257984679.275691</v>
+        <v>2894510601.266481</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1763351467769758</v>
+        <v>0.1599734341721845</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04945192602548414</v>
+        <v>0.04835817795887001</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1128992317.658431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2382035549.741157</v>
+        <v>2572315374.110173</v>
       </c>
       <c r="F86" t="n">
-        <v>0.124103966178951</v>
+        <v>0.1501500018976529</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02276646754821147</v>
+        <v>0.02264245137433971</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1191017855.379043</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1064686535.212097</v>
+        <v>946987513.5102844</v>
       </c>
       <c r="F87" t="n">
-        <v>0.152074672562409</v>
+        <v>0.133607713403782</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04102412365648425</v>
+        <v>0.03449071574955442</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>532343288.2614557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2450596330.67922</v>
+        <v>3041348666.015179</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1559700649539551</v>
+        <v>0.1515952089473193</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03110421004790691</v>
+        <v>0.03323987486841928</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1225298141.218539</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2488862290.923551</v>
+        <v>2986435448.020291</v>
       </c>
       <c r="F89" t="n">
-        <v>0.12816124004996</v>
+        <v>0.1163860028084118</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03659723312070508</v>
+        <v>0.03903172616666822</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1244431220.828243</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1632197561.79587</v>
+        <v>1982240624.641464</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09435629040726615</v>
+        <v>0.1053635194278055</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03423610214034244</v>
+        <v>0.03572707333465088</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>816098783.5762244</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1449098828.349332</v>
+        <v>1867222798.695825</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1776647884689448</v>
+        <v>0.1784807193015567</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0449184331761285</v>
+        <v>0.04667860534263397</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>724549459.6569201</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2840155457.918532</v>
+        <v>2275943380.12445</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09759993904651931</v>
+        <v>0.08449518998491209</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03769863985538835</v>
+        <v>0.04201611338011032</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1420077738.367426</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3078473828.688277</v>
+        <v>4716286896.718786</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1234156513427286</v>
+        <v>0.0871085839400082</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05468987471866822</v>
+        <v>0.04653677756769477</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1539236974.324365</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2439317678.918661</v>
+        <v>2131742792.704207</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1079325600710601</v>
+        <v>0.1628204673705741</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03677830806679484</v>
+        <v>0.03063090214826245</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1219658894.796342</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2493722398.153945</v>
+        <v>2029357070.08407</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1385379359598185</v>
+        <v>0.1179375493258557</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04821587114656266</v>
+        <v>0.03626003165864067</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1246861235.39035</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1494268207.510582</v>
+        <v>1895167992.005306</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1339597485807056</v>
+        <v>0.08774106629715925</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03375619198636053</v>
+        <v>0.04339388762292169</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>747134144.3727517</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4206423624.338153</v>
+        <v>4392953862.711976</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1461048220111018</v>
+        <v>0.1595918405332996</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0217814105170781</v>
+        <v>0.01780947243105921</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2103211884.912999</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3715873788.748762</v>
+        <v>3340645058.311975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1283969600510511</v>
+        <v>0.09350205362059086</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02980467559908903</v>
+        <v>0.02525609777430923</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1857936927.398752</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3024781236.874469</v>
+        <v>2109375644.318966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1221244534068122</v>
+        <v>0.1238611627684545</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445060376321642</v>
+        <v>0.02781114329972455</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1512390605.962193</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4357138189.050614</v>
+        <v>3838662233.032074</v>
       </c>
       <c r="F100" t="n">
-        <v>0.164806431518369</v>
+        <v>0.1702161297956007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02140952277027448</v>
+        <v>0.02531608611108636</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2178569193.446721</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3047982343.800911</v>
+        <v>2314210713.712684</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1641202285797848</v>
+        <v>0.1660609572553455</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05567256664632678</v>
+        <v>0.05356216234430919</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1523991267.043061</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1560494801.026866</v>
+        <v>1625639797.671934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1113303835535247</v>
+        <v>0.07388079933950346</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03966474914533438</v>
+        <v>0.03631777709828353</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2638984178.427137</v>
+        <v>2405784331.956861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1348061928394898</v>
+        <v>0.1814841656559908</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03061493132983359</v>
+        <v>0.04550315865224944</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3405528279.956341</v>
+        <v>3411112488.943723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1398930472858499</v>
+        <v>0.104129826943996</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03219014102914598</v>
+        <v>0.02747860540268537</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2886106387.617402</v>
+        <v>2723140078.410398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08495075526983517</v>
+        <v>0.0990631556809141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04614052635108367</v>
+        <v>0.04092772724161723</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2110736024.220041</v>
+        <v>2202252131.450319</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1341907993003241</v>
+        <v>0.09707497376594966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03856297091349065</v>
+        <v>0.05453004326887143</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2164605657.040684</v>
+        <v>2354139694.994721</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08418498493755966</v>
+        <v>0.07852220069393107</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04880636635691796</v>
+        <v>0.03348553205003856</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742658022.510758</v>
+        <v>3655864132.722336</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1558594849554656</v>
+        <v>0.1838850151172765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03212524014168172</v>
+        <v>0.03199446217744056</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1412283877.220288</v>
+        <v>2003077383.122497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1578231798551091</v>
+        <v>0.1909611130985158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03136848080651757</v>
+        <v>0.03606338380040675</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3976266643.151164</v>
+        <v>5201870042.026155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1791452519260456</v>
+        <v>0.1570339717896808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03421227584183266</v>
+        <v>0.04729258990399993</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2911310210.409693</v>
+        <v>3202171545.749584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724676198468609</v>
+        <v>0.1160155826856688</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04552544761824934</v>
+        <v>0.03649488345639317</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2334030310.688428</v>
+        <v>2583509255.929117</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1995070275222623</v>
+        <v>0.1690674777675711</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05158817300975733</v>
+        <v>0.04420476795008126</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5283736907.350932</v>
+        <v>5174289987.153712</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09216771860200548</v>
+        <v>0.0631353260985157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02090419898637063</v>
+        <v>0.0308108482124078</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3226870908.367029</v>
+        <v>2766920456.335603</v>
       </c>
       <c r="F14" t="n">
-        <v>0.115848263224532</v>
+        <v>0.1168042223760233</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03347779158380776</v>
+        <v>0.03728698391225547</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1210024830.377555</v>
+        <v>1705071953.218666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06903116807449709</v>
+        <v>0.0816707611482843</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04194499958007151</v>
+        <v>0.04324902200955931</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2462378649.080193</v>
+        <v>2050519718.313111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07993245104087723</v>
+        <v>0.07840100986865334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04706131472385395</v>
+        <v>0.03950903171549917</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4790824761.710546</v>
+        <v>4976307574.51888</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1510907957012238</v>
+        <v>0.1170887564013987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03566851254326762</v>
+        <v>0.03801525793872643</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2921352595.270303</v>
+        <v>3922274481.934396</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1427490205403156</v>
+        <v>0.1363871602051773</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02149731510661476</v>
+        <v>0.02385910615948695</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>909326229.7856246</v>
+        <v>1238581719.170402</v>
       </c>
       <c r="F19" t="n">
-        <v>0.189041273240104</v>
+        <v>0.1622123133951499</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02525645767788841</v>
+        <v>0.02323195008030623</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2463284167.210316</v>
+        <v>2180536096.288441</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1578913084205796</v>
+        <v>0.1237374897181924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02420281101207371</v>
+        <v>0.02791971880076696</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1947994169.456681</v>
+        <v>2340298875.860123</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07174058038189279</v>
+        <v>0.0988061135151207</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03704560473499891</v>
+        <v>0.03621003175782485</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4016957936.337372</v>
+        <v>2986295100.767288</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09703997691996723</v>
+        <v>0.0954935888523701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0517205746000361</v>
+        <v>0.03590843360817222</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1523068704.392279</v>
+        <v>977890375.6376309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1697876659696244</v>
+        <v>0.1646293293150297</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04755135783075368</v>
+        <v>0.03656069431395477</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2566360786.22252</v>
+        <v>3947671872.173541</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09457885310531015</v>
+        <v>0.1154667602450189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03333509764041828</v>
+        <v>0.02566834046677153</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1183196996.14091</v>
+        <v>1194878205.021157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08899972213633622</v>
+        <v>0.08125037340676866</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02001316606193555</v>
+        <v>0.0245578037102087</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1394449921.390053</v>
+        <v>1238250580.071769</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1087421328749436</v>
+        <v>0.1124636469868196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02503336890836344</v>
+        <v>0.0319567140783459</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4531481835.112704</v>
+        <v>3472026646.26814</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1388567026717477</v>
+        <v>0.1138974721693947</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01884226598128986</v>
+        <v>0.01819684984515614</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3901094604.248838</v>
+        <v>2397496187.066837</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1304227789165157</v>
+        <v>0.1092385949499598</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04444392697227055</v>
+        <v>0.03402576301194096</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4763464713.990469</v>
+        <v>5251990986.586729</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121454354220275</v>
+        <v>0.1311666010599865</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03276672609630173</v>
+        <v>0.04142284988840107</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2061299969.565139</v>
+        <v>1790536537.186077</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08778136022788947</v>
+        <v>0.1059484083128427</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0402546735634274</v>
+        <v>0.03110214351085972</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1406738889.014199</v>
+        <v>1037251689.772707</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1071351777375355</v>
+        <v>0.1063004142659518</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04874671602711537</v>
+        <v>0.05079120166693373</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1377289504.365136</v>
+        <v>1284707576.978141</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09749436892919597</v>
+        <v>0.07754872940981757</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02612811445515474</v>
+        <v>0.03054216220392732</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351903016.777468</v>
+        <v>1991288208.55754</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1949117119159814</v>
+        <v>0.1357092440106576</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05455826934512965</v>
+        <v>0.04826265137884202</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1217650573.199291</v>
+        <v>1396433964.583731</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1076749615699954</v>
+        <v>0.09111795621063311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01902981064844724</v>
+        <v>0.01961205853434747</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1046812578.726714</v>
+        <v>1120962575.79845</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1073650926136446</v>
+        <v>0.08746818363509611</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04371207756634835</v>
+        <v>0.03320209594804457</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2441409694.527723</v>
+        <v>2503666888.307195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366048475298173</v>
+        <v>0.1612092129104255</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02827625818466866</v>
+        <v>0.0183417657432203</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2637176623.956662</v>
+        <v>2141860683.747463</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1083815862403651</v>
+        <v>0.06866224855930217</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02908498428750188</v>
+        <v>0.03206440076373984</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1399449939.978392</v>
+        <v>2115349318.090745</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09992446480946075</v>
+        <v>0.09602269018636778</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03218102700230961</v>
+        <v>0.03071694594093314</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1881319955.443328</v>
+        <v>2130971215.831277</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1195598773511838</v>
+        <v>0.1215869895638615</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03264168425647342</v>
+        <v>0.0295148648025838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1679043695.381561</v>
+        <v>1653846859.368545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1166136287740378</v>
+        <v>0.1005900227478096</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04313003502142874</v>
+        <v>0.05503253420214068</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1977710984.622824</v>
+        <v>2717222211.097109</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1631700211695228</v>
+        <v>0.1484513987677597</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03072152868001296</v>
+        <v>0.04410761778107473</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3860007194.545021</v>
+        <v>3792901687.24154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1151171877103183</v>
+        <v>0.09601225343802987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0417528447894602</v>
+        <v>0.0325315729087021</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2280758353.133222</v>
+        <v>2889781426.203287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1338746087830664</v>
+        <v>0.155124087810369</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02463652732605363</v>
+        <v>0.01994952508335554</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2158670293.824779</v>
+        <v>1635015433.435578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08157361569173265</v>
+        <v>0.06882699480322639</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02913785433647554</v>
+        <v>0.02852633621451489</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1629951399.184043</v>
+        <v>1929229750.580496</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1557583668078233</v>
+        <v>0.187647991386811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04764508320669492</v>
+        <v>0.05114779338718019</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5276509449.905648</v>
+        <v>4819427080.767369</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1751633652214536</v>
+        <v>0.1597600571348421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04213272149569169</v>
+        <v>0.0475797005865612</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4387251206.748133</v>
+        <v>3224914815.564764</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1827030619163361</v>
+        <v>0.1751302015839563</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05934991877340467</v>
+        <v>0.03818779146544873</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3122336362.282783</v>
+        <v>3477044864.619318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08692120595883783</v>
+        <v>0.1076724801591691</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03795412293174195</v>
+        <v>0.03368569154701322</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1687270625.502293</v>
+        <v>1313619778.522719</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1660388766466305</v>
+        <v>0.1233327831716414</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0363492614498868</v>
+        <v>0.0401325155613726</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3411316799.505167</v>
+        <v>4212968009.419947</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1232675717930231</v>
+        <v>0.1224555375554808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04154387460839837</v>
+        <v>0.03462713020288259</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1174822274.369138</v>
+        <v>1377989642.759565</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1730293322651889</v>
+        <v>0.1824840197451872</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04107090593964619</v>
+        <v>0.04409421996256219</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5245091879.6473</v>
+        <v>4367626399.836017</v>
       </c>
       <c r="F52" t="n">
-        <v>0.101768808236159</v>
+        <v>0.1329184770824539</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04069413397087997</v>
+        <v>0.06182781558521438</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3105236304.064598</v>
+        <v>3222962015.196397</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1881034558676733</v>
+        <v>0.1840106324989007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03539184231600443</v>
+        <v>0.03080613839832955</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4641927346.525582</v>
+        <v>4829642641.962111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1181699035415075</v>
+        <v>0.1167179960096884</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0408972349987625</v>
+        <v>0.03225773484746265</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3467574187.6229</v>
+        <v>4526901396.449693</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1565410178368185</v>
+        <v>0.2039950042988878</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02016284433499231</v>
+        <v>0.03013467804061635</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1332857887.250107</v>
+        <v>1843378704.467796</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1410641127750521</v>
+        <v>0.157074091850425</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04000921668815675</v>
+        <v>0.04813400697324052</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3811192494.725923</v>
+        <v>4139135087.894498</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1818588406081593</v>
+        <v>0.1362529576066333</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02080249179753643</v>
+        <v>0.01869184282049765</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1682587649.82458</v>
+        <v>1349246635.669186</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1913790832236539</v>
+        <v>0.1609609371677523</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02450798209312575</v>
+        <v>0.02949292338326998</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3619229799.336926</v>
+        <v>4715758045.408444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1184184098227956</v>
+        <v>0.1248135446977196</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04767252239692242</v>
+        <v>0.03543716410579922</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3426310671.963859</v>
+        <v>2379797029.729876</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1874662022596499</v>
+        <v>0.2055705725855621</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03022850444562895</v>
+        <v>0.02618602589976223</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2257355387.947771</v>
+        <v>2050986262.715007</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1684803366010473</v>
+        <v>0.1336483428622614</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02164901373774171</v>
+        <v>0.02619106818662012</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1279662304.060395</v>
+        <v>1529967603.388726</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1821632125110174</v>
+        <v>0.1184799627190951</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03347857420829348</v>
+        <v>0.04059786247223755</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5270228193.194241</v>
+        <v>4387898260.086609</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07555764963898226</v>
+        <v>0.09366250119873211</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0361305490746957</v>
+        <v>0.04534923532153713</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4289045699.219835</v>
+        <v>3374100585.832937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1914391739358161</v>
+        <v>0.1269349767221321</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03463936138504729</v>
+        <v>0.03346864031599001</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3737002622.563524</v>
+        <v>5726172726.992338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1690930350081928</v>
+        <v>0.1289376961517492</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02145496145534112</v>
+        <v>0.02812634749161288</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4896724438.349128</v>
+        <v>4786682046.068174</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1269626275151553</v>
+        <v>0.1597879370486315</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04266425070947146</v>
+        <v>0.0360833787643493</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2185856920.476651</v>
+        <v>2471546711.488227</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08797996738691606</v>
+        <v>0.0816138260296886</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03510664627633887</v>
+        <v>0.05006780483536968</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3951358626.065228</v>
+        <v>3749301545.028332</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150998285934693</v>
+        <v>0.1500951360102412</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04136594103833648</v>
+        <v>0.04025072637315857</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2448175395.488008</v>
+        <v>1661959214.267519</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1395619071195486</v>
+        <v>0.1613614803931984</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05820449078368552</v>
+        <v>0.04762927760500982</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3397327536.519664</v>
+        <v>2851257439.158853</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08501918028906155</v>
+        <v>0.101234497797532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04069579679806856</v>
+        <v>0.03659878461350356</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5363984077.23468</v>
+        <v>4640056496.833005</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1290841912900358</v>
+        <v>0.144455946165697</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0316564228619845</v>
+        <v>0.03059202072081326</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2083641913.971228</v>
+        <v>1617179515.858276</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09259567515427111</v>
+        <v>0.08638116265087274</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04142537619271793</v>
+        <v>0.03259149677383959</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2906804282.246513</v>
+        <v>2414487856.609707</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06798219616341515</v>
+        <v>0.07743890644694433</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03570988827080854</v>
+        <v>0.0366301668391479</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2497161047.334911</v>
+        <v>3905519941.593617</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1206825812562001</v>
+        <v>0.1620687973297751</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03121847172978821</v>
+        <v>0.03128076124280573</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1789006522.615604</v>
+        <v>2431342915.311189</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1031160099931652</v>
+        <v>0.1609104845738862</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03200962793457205</v>
+        <v>0.03286573777770185</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3976804214.800403</v>
+        <v>3627577963.258867</v>
       </c>
       <c r="F76" t="n">
-        <v>0.103391415229403</v>
+        <v>0.1160353023553687</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03266495070126512</v>
+        <v>0.03167057772589259</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1866247809.592564</v>
+        <v>2133373598.453871</v>
       </c>
       <c r="F77" t="n">
-        <v>0.143806829929128</v>
+        <v>0.1476578789010082</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02020349087909652</v>
+        <v>0.02010198977859029</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3218789620.814301</v>
+        <v>2995807869.163621</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088839571523981</v>
+        <v>0.1021647460709919</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03466916189831134</v>
+        <v>0.05294727704576138</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1497049248.069923</v>
+        <v>1455562319.733721</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1140159017304537</v>
+        <v>0.1647460126765228</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0327009796001578</v>
+        <v>0.02699204288490888</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4753232505.367623</v>
+        <v>3615203119.940602</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07077038022076032</v>
+        <v>0.102969478604338</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02908821883884535</v>
+        <v>0.03150992891595079</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3483252849.097526</v>
+        <v>4067062909.908414</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0886562037159785</v>
+        <v>0.1163981378851383</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02736974818757501</v>
+        <v>0.02145059214634955</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5362803370.831847</v>
+        <v>5242817648.473472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1518117980830608</v>
+        <v>0.165633199151997</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01839133790010637</v>
+        <v>0.0211154804840978</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1838755992.466485</v>
+        <v>1898591060.284069</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356349610607943</v>
+        <v>0.1353613930555245</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02953994111622021</v>
+        <v>0.03064450316392502</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2402546137.640348</v>
+        <v>1626065944.567309</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07674450928557383</v>
+        <v>0.0796248388710659</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03422880749159744</v>
+        <v>0.0363381354831227</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2894510601.266481</v>
+        <v>2287872410.464336</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1599734341721845</v>
+        <v>0.1546360931117582</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04835817795887001</v>
+        <v>0.03432578501963104</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2572315374.110173</v>
+        <v>2465523595.127713</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1501500018976529</v>
+        <v>0.119764954143489</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02264245137433971</v>
+        <v>0.02421081188457455</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>946987513.5102844</v>
+        <v>971770650.8322744</v>
       </c>
       <c r="F87" t="n">
-        <v>0.133607713403782</v>
+        <v>0.1665552078961073</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03449071574955442</v>
+        <v>0.04005338519343156</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3041348666.015179</v>
+        <v>3683630991.537168</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1515952089473193</v>
+        <v>0.151136711615626</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03323987486841928</v>
+        <v>0.03840443656993554</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2986435448.020291</v>
+        <v>2481960800.607475</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1163860028084118</v>
+        <v>0.1500465619553422</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03903172616666822</v>
+        <v>0.02789752425082157</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1982240624.641464</v>
+        <v>1647843611.890901</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1053635194278055</v>
+        <v>0.1257751406267676</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03572707333465088</v>
+        <v>0.04500396349909289</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1867222798.695825</v>
+        <v>1821356549.000063</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1784807193015567</v>
+        <v>0.1661322606387565</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04667860534263397</v>
+        <v>0.05209309747305788</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2275943380.12445</v>
+        <v>2469283858.403095</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08449518998491209</v>
+        <v>0.0970027169066395</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04201611338011032</v>
+        <v>0.04580266665403274</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4716286896.718786</v>
+        <v>3437996830.886039</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0871085839400082</v>
+        <v>0.1034956759831678</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04653677756769477</v>
+        <v>0.05318375843507232</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2131742792.704207</v>
+        <v>1884276507.330222</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1628204673705741</v>
+        <v>0.1669410235853992</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03063090214826245</v>
+        <v>0.04000128457361204</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2029357070.08407</v>
+        <v>2495942730.775681</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1179375493258557</v>
+        <v>0.1326448998577335</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03626003165864067</v>
+        <v>0.04482254289980331</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1895167992.005306</v>
+        <v>1701973357.86353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08774106629715925</v>
+        <v>0.103747220188812</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04339388762292169</v>
+        <v>0.03061149886099129</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4392953862.711976</v>
+        <v>3350629585.544356</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1595918405332996</v>
+        <v>0.1232693122702299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01780947243105921</v>
+        <v>0.02867157187032056</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3340645058.311975</v>
+        <v>2629160432.827612</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09350205362059086</v>
+        <v>0.1170562381395987</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02525609777430923</v>
+        <v>0.02513202330754618</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2109375644.318966</v>
+        <v>2624951227.044834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1238611627684545</v>
+        <v>0.148165864890259</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02781114329972455</v>
+        <v>0.02915227530853377</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3838662233.032074</v>
+        <v>3460195303.889784</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1702161297956007</v>
+        <v>0.1784016908637744</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02531608611108636</v>
+        <v>0.01754707575744651</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2314210713.712684</v>
+        <v>3292474051.133815</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660609572553455</v>
+        <v>0.1764079993849124</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05356216234430919</v>
+        <v>0.03810824849788404</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_23.xlsx
+++ b/output/fit_clients/fit_round_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1625639797.671934</v>
+        <v>1868735362.388484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07388079933950346</v>
+        <v>0.08254222571606452</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03631777709828353</v>
+        <v>0.02896611352441128</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2405784331.956861</v>
+        <v>2633074420.326198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1814841656559908</v>
+        <v>0.1741203292554304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04550315865224944</v>
+        <v>0.03865139887873904</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3411112488.943723</v>
+        <v>4756569722.963704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.104129826943996</v>
+        <v>0.1421828239608915</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02747860540268537</v>
+        <v>0.0343311833786664</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.8843949217058</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2723140078.410398</v>
+        <v>2705483963.510794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0990631556809141</v>
+        <v>0.09618896742358321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04092772724161723</v>
+        <v>0.04372760851573557</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.3281912407735</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2202252131.450319</v>
+        <v>1974610228.119221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09707497376594966</v>
+        <v>0.1336457893613302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05453004326887143</v>
+        <v>0.0377769337897051</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2354139694.994721</v>
+        <v>2612630037.777761</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07852220069393107</v>
+        <v>0.1018215172056388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03348553205003856</v>
+        <v>0.04681565288475616</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3655864132.722336</v>
+        <v>3314699235.829745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1838850151172765</v>
+        <v>0.1757737291666803</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03199446217744056</v>
+        <v>0.02210590409952045</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>135.7307737510567</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2003077383.122497</v>
+        <v>1977849729.57358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909611130985158</v>
+        <v>0.1858480810622193</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03606338380040675</v>
+        <v>0.02807583430056726</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5201870042.026155</v>
+        <v>4248185036.721014</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1570339717896808</v>
+        <v>0.150403887172424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04729258990399993</v>
+        <v>0.05248799751789484</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9224220278107</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3202171545.749584</v>
+        <v>3496354231.725976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1160155826856688</v>
+        <v>0.1452783705692846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03649488345639317</v>
+        <v>0.03125029063363053</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2583509255.929117</v>
+        <v>2622192706.573696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1690674777675711</v>
+        <v>0.1316587168985852</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04420476795008126</v>
+        <v>0.04992461740002557</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5174289987.153712</v>
+        <v>4804746231.485483</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0631353260985157</v>
+        <v>0.08587014391755746</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0308108482124078</v>
+        <v>0.02592076724837279</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>23</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2766920456.335603</v>
+        <v>2420618154.535927</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1168042223760233</v>
+        <v>0.156378125910172</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03728698391225547</v>
+        <v>0.03737794106853403</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>22</v>
+      </c>
+      <c r="K14" t="n">
+        <v>74.94588358867824</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1705071953.218666</v>
+        <v>1425036470.675515</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0816707611482843</v>
+        <v>0.1058385922969563</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04324902200955931</v>
+        <v>0.04456755195645248</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2050519718.313111</v>
+        <v>2267979225.839754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07840100986865334</v>
+        <v>0.0908794245567969</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03950903171549917</v>
+        <v>0.03153844796161587</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4976307574.51888</v>
+        <v>3342247651.03658</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1170887564013987</v>
+        <v>0.1741985873629219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03801525793872643</v>
+        <v>0.03982025885576321</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" t="n">
+        <v>134.9491027450375</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1067,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3922274481.934396</v>
+        <v>3622613529.29464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1363871602051773</v>
+        <v>0.1522979850581378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02385910615948695</v>
+        <v>0.02729500199898656</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>22</v>
+      </c>
+      <c r="K18" t="n">
+        <v>168.8871196908588</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1104,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1238581719.170402</v>
+        <v>1138682211.713251</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1622123133951499</v>
+        <v>0.1842142053981039</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02323195008030623</v>
+        <v>0.02686401111994617</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2180536096.288441</v>
+        <v>1849016578.472568</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1237374897181924</v>
+        <v>0.1212809498373624</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02791971880076696</v>
+        <v>0.03160244376464656</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2340298875.860123</v>
+        <v>2366814016.574166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0988061135151207</v>
+        <v>0.08709751275916365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03621003175782485</v>
+        <v>0.04351441987440333</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1209,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2986295100.767288</v>
+        <v>2517287144.545854</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0954935888523701</v>
+        <v>0.08863594696769601</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03590843360817222</v>
+        <v>0.05625775342334581</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>72.73831352195501</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1252,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>977890375.6376309</v>
+        <v>1284006064.885106</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1646293293150297</v>
+        <v>0.1810280910374558</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03656069431395477</v>
+        <v>0.0519754451201723</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1281,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3947671872.173541</v>
+        <v>3482317643.561272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154667602450189</v>
+        <v>0.1313900005637596</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02566834046677153</v>
+        <v>0.0317077018760073</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>146.5697300157276</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1324,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1194878205.021157</v>
+        <v>1019891719.325157</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08125037340676866</v>
+        <v>0.1189334801502058</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0245578037102087</v>
+        <v>0.02768775940015953</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1353,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1238250580.071769</v>
+        <v>953765018.6606268</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1124636469868196</v>
+        <v>0.08776704112508976</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0319567140783459</v>
+        <v>0.03243072200217353</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1388,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3472026646.26814</v>
+        <v>3298688697.704414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1138974721693947</v>
+        <v>0.1224517838411058</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01819684984515614</v>
+        <v>0.02252132600971567</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1423,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2397496187.066837</v>
+        <v>3782939620.892685</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1092385949499598</v>
+        <v>0.09588643951112633</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03402576301194096</v>
+        <v>0.0402424358322437</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1458,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5251990986.586729</v>
+        <v>4059507634.711421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1311666010599865</v>
+        <v>0.1059864516233546</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04142284988840107</v>
+        <v>0.03924693534987575</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="n">
+        <v>23</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9037708242164</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1501,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1790536537.186077</v>
+        <v>2052329236.875601</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1059484083128427</v>
+        <v>0.1222751313234307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03110214351085972</v>
+        <v>0.03853140396667319</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1530,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1037251689.772707</v>
+        <v>1303564994.997452</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1063004142659518</v>
+        <v>0.08119461275210831</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05079120166693373</v>
+        <v>0.04284739751939558</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1565,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1284707576.978141</v>
+        <v>1196930800.431719</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07754872940981757</v>
+        <v>0.08277872995037307</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03054216220392732</v>
+        <v>0.02497449821213984</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1600,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991288208.55754</v>
+        <v>2356884372.090592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1357092440106576</v>
+        <v>0.1783149203958236</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04826265137884202</v>
+        <v>0.04671381073519415</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1635,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1396433964.583731</v>
+        <v>1257187579.742006</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09111795621063311</v>
+        <v>0.09637269651506583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01961205853434747</v>
+        <v>0.02436494211228045</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1670,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1120962575.79845</v>
+        <v>1146187319.998735</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08746818363509611</v>
+        <v>0.1157476731139077</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03320209594804457</v>
+        <v>0.03292834403947666</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1705,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2503666888.307195</v>
+        <v>3155509498.290553</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1612092129104255</v>
+        <v>0.1783979432617516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0183417657432203</v>
+        <v>0.02517049050478067</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1740,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2141860683.747463</v>
+        <v>2332971259.058645</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06866224855930217</v>
+        <v>0.06973776584013763</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03206440076373984</v>
+        <v>0.04120634970148353</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1775,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2115349318.090745</v>
+        <v>1630783577.189841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09602269018636778</v>
+        <v>0.1118410647638806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03071694594093314</v>
+        <v>0.03790733897563488</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1816,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2130971215.831277</v>
+        <v>1455363179.391349</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1215869895638615</v>
+        <v>0.1301509387953806</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0295148648025838</v>
+        <v>0.02221311276245671</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1851,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1653846859.368545</v>
+        <v>1121451582.892509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1005900227478096</v>
+        <v>0.1365878576050485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05503253420214068</v>
+        <v>0.04688374113590171</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1880,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2717222211.097109</v>
+        <v>1954148459.796812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1484513987677597</v>
+        <v>0.143819028201042</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04410761778107473</v>
+        <v>0.04298728846662508</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1915,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3792901687.24154</v>
+        <v>3077651508.198719</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09601225343802987</v>
+        <v>0.07998472537404819</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0325315729087021</v>
+        <v>0.03475882730121065</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>21</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2889781426.203287</v>
+        <v>1854505471.517445</v>
       </c>
       <c r="F43" t="n">
-        <v>0.155124087810369</v>
+        <v>0.1711381473200314</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01994952508335554</v>
+        <v>0.02425879767404579</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1635015433.435578</v>
+        <v>1579414477.354164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06882699480322639</v>
+        <v>0.08880091528881758</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02852633621451489</v>
+        <v>0.02338929213632804</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2026,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1929229750.580496</v>
+        <v>2186696503.745688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.187647991386811</v>
+        <v>0.1509154480496974</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05114779338718019</v>
+        <v>0.04462935160586218</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2055,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4819427080.767369</v>
+        <v>4482439914.581176</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1597600571348421</v>
+        <v>0.1664163701290962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0475797005865612</v>
+        <v>0.05530649966009944</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.0737341690335</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2092,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3224914815.564764</v>
+        <v>4323908977.040295</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1751302015839563</v>
+        <v>0.1933949654474382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03818779146544873</v>
+        <v>0.03674766989579362</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>22</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.6194965569038</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2129,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3477044864.619318</v>
+        <v>3006013768.482479</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1076724801591691</v>
+        <v>0.09062953575726829</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03368569154701322</v>
+        <v>0.03592920591336451</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>22</v>
+      </c>
+      <c r="K48" t="n">
+        <v>116.1209052626869</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2166,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1313619778.522719</v>
+        <v>1983627261.004209</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1233327831716414</v>
+        <v>0.146941125504412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0401325155613726</v>
+        <v>0.03313084572336429</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2201,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4212968009.419947</v>
+        <v>3347089931.61298</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1224555375554808</v>
+        <v>0.124382390526834</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03462713020288259</v>
+        <v>0.0445874235387767</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>23</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2236,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377989642.759565</v>
+        <v>1423274603.785406</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1824840197451872</v>
+        <v>0.1321106263427863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04409421996256219</v>
+        <v>0.04251679869568657</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2277,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4367626399.836017</v>
+        <v>4919412315.012906</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1329184770824539</v>
+        <v>0.1026788032531178</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06182781558521438</v>
+        <v>0.04685957058844514</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>23</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.4775723898998</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2314,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3222962015.196397</v>
+        <v>2735312962.359155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1840106324989007</v>
+        <v>0.1477727947930954</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03080613839832955</v>
+        <v>0.02547610656617163</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2343,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4829642641.962111</v>
+        <v>3077142631.1511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1167179960096884</v>
+        <v>0.1043980195968574</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03225773484746265</v>
+        <v>0.04296577855584546</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>21</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2378,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4526901396.449693</v>
+        <v>4012371948.946087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2039950042988878</v>
+        <v>0.1678840736314333</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03013467804061635</v>
+        <v>0.02447707508112562</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1843378704.467796</v>
+        <v>1431447776.427902</v>
       </c>
       <c r="F56" t="n">
-        <v>0.157074091850425</v>
+        <v>0.1072699108342397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04813400697324052</v>
+        <v>0.03707425534459788</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2454,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4139135087.894498</v>
+        <v>3664400443.595689</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1362529576066333</v>
+        <v>0.1433182021753937</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01869184282049765</v>
+        <v>0.01831340069153928</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22</v>
+      </c>
+      <c r="K57" t="n">
+        <v>165.6276831389586</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2485,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1349246635.669186</v>
+        <v>1343956986.579755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1609609371677523</v>
+        <v>0.1941505972728851</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02949292338326998</v>
+        <v>0.02456439807459761</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2520,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4715758045.408444</v>
+        <v>4046106676.590986</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1248135446977196</v>
+        <v>0.08452686093145802</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03543716410579922</v>
+        <v>0.03873091293552087</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>22</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.9412223667995</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2557,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2379797029.729876</v>
+        <v>3231253105.229047</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2055705725855621</v>
+        <v>0.1531218595311537</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02618602589976223</v>
+        <v>0.02843323463110833</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2592,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2050986262.715007</v>
+        <v>3171568406.172203</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1336483428622614</v>
+        <v>0.1162351530909836</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02619106818662012</v>
+        <v>0.02860739160538174</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2627,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1529967603.388726</v>
+        <v>1797897063.451304</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1184799627190951</v>
+        <v>0.1519473776165005</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04059786247223755</v>
+        <v>0.04317132398362618</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2662,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4387898260.086609</v>
+        <v>5621161958.799306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09366250119873211</v>
+        <v>0.08622772656679575</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04534923532153713</v>
+        <v>0.04554438069889258</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>22</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.2943328080024</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2699,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3374100585.832937</v>
+        <v>5435972911.961942</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1269349767221321</v>
+        <v>0.1238437138267077</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03346864031599001</v>
+        <v>0.02674065833809684</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>23</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2734,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5726172726.992338</v>
+        <v>5881274020.19167</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1289376961517492</v>
+        <v>0.1557936806222613</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02812634749161288</v>
+        <v>0.02787333287195374</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>23</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2769,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4786682046.068174</v>
+        <v>3915232213.407432</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1597879370486315</v>
+        <v>0.1616967468610131</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0360833787643493</v>
+        <v>0.04267963557661411</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>23</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2810,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2471546711.488227</v>
+        <v>3227528328.411647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0816138260296886</v>
+        <v>0.06523284958499556</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05006780483536968</v>
+        <v>0.03714151110741706</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2845,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3749301545.028332</v>
+        <v>5548936005.146739</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1500951360102412</v>
+        <v>0.1451708253534484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04025072637315857</v>
+        <v>0.0409284399853171</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>23</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2880,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1661959214.267519</v>
+        <v>1543676176.654452</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1613614803931984</v>
+        <v>0.1640385163210131</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04762927760500982</v>
+        <v>0.05616893887709273</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2851257439.158853</v>
+        <v>3108558586.642114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101234497797532</v>
+        <v>0.06889833541987402</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03659878461350356</v>
+        <v>0.03803834328606948</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4640056496.833005</v>
+        <v>4263222902.644856</v>
       </c>
       <c r="F71" t="n">
-        <v>0.144455946165697</v>
+        <v>0.1383004712500116</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03059202072081326</v>
+        <v>0.03172316301375216</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="n">
+        <v>23</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.4714572193152</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1617179515.858276</v>
+        <v>1520580692.894016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08638116265087274</v>
+        <v>0.08340865595723038</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03259149677383959</v>
+        <v>0.03833994232632088</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2414487856.609707</v>
+        <v>2301918864.956006</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07743890644694433</v>
+        <v>0.07612685968519063</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0366301668391479</v>
+        <v>0.05035969431303569</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3057,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3905519941.593617</v>
+        <v>2982782226.271235</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1620687973297751</v>
+        <v>0.1433425868820399</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03128076124280573</v>
+        <v>0.02283725487703283</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2431342915.311189</v>
+        <v>2293654468.323872</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609104845738862</v>
+        <v>0.1251233962165499</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03286573777770185</v>
+        <v>0.03448642064886277</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3627577963.258867</v>
+        <v>4611687452.552584</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1160353023553687</v>
+        <v>0.09091851957513478</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03167057772589259</v>
+        <v>0.02916148298821753</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2133373598.453871</v>
+        <v>2176685143.942334</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1476578789010082</v>
+        <v>0.1153981310545766</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02010198977859029</v>
+        <v>0.02603556109799519</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2995807869.163621</v>
+        <v>4245885534.887225</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1021647460709919</v>
+        <v>0.1101286366098408</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05294727704576138</v>
+        <v>0.04147936114665185</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>23</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1455562319.733721</v>
+        <v>1634599716.180623</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1647460126765228</v>
+        <v>0.1739575199872694</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02699204288490888</v>
+        <v>0.04064917085724573</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3615203119.940602</v>
+        <v>4805983603.307614</v>
       </c>
       <c r="F80" t="n">
-        <v>0.102969478604338</v>
+        <v>0.08045960179484841</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03150992891595079</v>
+        <v>0.03625683659074031</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11</v>
+      </c>
+      <c r="J80" t="n">
+        <v>22</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.5597361590418</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4067062909.908414</v>
+        <v>3396698028.040246</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1163981378851383</v>
+        <v>0.09714799529711232</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02145059214634955</v>
+        <v>0.03101876409037297</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>23</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5242817648.473472</v>
+        <v>5219517962.300273</v>
       </c>
       <c r="F82" t="n">
-        <v>0.165633199151997</v>
+        <v>0.1350418889753253</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0211154804840978</v>
+        <v>0.02315109203506388</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1898591060.284069</v>
+        <v>1543577979.936726</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1353613930555245</v>
+        <v>0.1144216829832558</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03064450316392502</v>
+        <v>0.02835550928218197</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1626065944.567309</v>
+        <v>2497527984.072602</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0796248388710659</v>
+        <v>0.09771079001426305</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0363381354831227</v>
+        <v>0.0419175409762532</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2287872410.464336</v>
+        <v>2516034429.691827</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1546360931117582</v>
+        <v>0.1302061432849821</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03432578501963104</v>
+        <v>0.03786617072871216</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2465523595.127713</v>
+        <v>2392637235.707328</v>
       </c>
       <c r="F86" t="n">
-        <v>0.119764954143489</v>
+        <v>0.1045550464921803</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02421081188457455</v>
+        <v>0.02619596748033334</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>971770650.8322744</v>
+        <v>1209115470.431492</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1665552078961073</v>
+        <v>0.1758211047775128</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04005338519343156</v>
+        <v>0.02862184963589418</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3683630991.537168</v>
+        <v>2711108982.34193</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151136711615626</v>
+        <v>0.1660121675719143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03840443656993554</v>
+        <v>0.02435780408554669</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2481960800.607475</v>
+        <v>2596519391.255803</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1500465619553422</v>
+        <v>0.1152325877696623</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02789752425082157</v>
+        <v>0.02761614861041602</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1647843611.890901</v>
+        <v>1899549915.023755</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1257751406267676</v>
+        <v>0.1181711275019207</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04500396349909289</v>
+        <v>0.04824550368880262</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1821356549.000063</v>
+        <v>1490582877.16754</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1661322606387565</v>
+        <v>0.1430464904537122</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05209309747305788</v>
+        <v>0.04905717513594748</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2469283858.403095</v>
+        <v>2807072095.891586</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0970027169066395</v>
+        <v>0.1015681343053283</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04580266665403274</v>
+        <v>0.03821062151261867</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3437996830.886039</v>
+        <v>3990969721.444607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1034956759831678</v>
+        <v>0.1174455988968781</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05318375843507232</v>
+        <v>0.04165206226724977</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>23</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1884276507.330222</v>
+        <v>2145700515.275185</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1669410235853992</v>
+        <v>0.1264821682903259</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04000128457361204</v>
+        <v>0.02977332390745803</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2495942730.775681</v>
+        <v>3025315987.163874</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1326448998577335</v>
+        <v>0.0847039267792629</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04482254289980331</v>
+        <v>0.04165356706229664</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1701973357.86353</v>
+        <v>2402349466.126743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.103747220188812</v>
+        <v>0.117675603269787</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03061149886099129</v>
+        <v>0.03287681734271442</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3350629585.544356</v>
+        <v>4632058924.589384</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1232693122702299</v>
+        <v>0.1171044047483483</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02867157187032056</v>
+        <v>0.02426022139915637</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>22</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5186609161004</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2629160432.827612</v>
+        <v>2660073508.17025</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1170562381395987</v>
+        <v>0.08207504542566539</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02513202330754618</v>
+        <v>0.02263535614490265</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2624951227.044834</v>
+        <v>2741294337.402369</v>
       </c>
       <c r="F99" t="n">
-        <v>0.148165864890259</v>
+        <v>0.1166154941965345</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02915227530853377</v>
+        <v>0.0277052708676737</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3460195303.889784</v>
+        <v>3637672225.543991</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1784016908637744</v>
+        <v>0.1309084818076078</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01754707575744651</v>
+        <v>0.01988443432671279</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>23</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3292474051.133815</v>
+        <v>2329733185.97482</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1764079993849124</v>
+        <v>0.2177959828949361</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03810824849788404</v>
+        <v>0.03774350724217489</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
